--- a/data/df_reviews_processed.xlsx
+++ b/data/df_reviews_processed.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,8 +545,10 @@
           <t>- rien de spécifique (comme n'importe quel cabinet de conseil)</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>44858</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 oct. 2022 </t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -614,8 +612,10 @@
           <t>Organisation hiérarchique - orienté résultat au détriment de l’évolution / progression</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>44888</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 nov. 2022 </t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -679,8 +679,10 @@
           <t>Peu d'intéressement et de participation.</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>44864</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 oct. 2022 </t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -756,8 +758,10 @@
           <t>Travail prenant, attention à bien respecter la vie perso / pro</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>44827</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 sept. 2022 </t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -824,8 +828,10 @@
           <t>La charge de travail peut augmenter lorsqu'on nous demande des activités internes</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>44824</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 sept. 2022 </t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -900,8 +906,10 @@
           <t>Beaucoup de travail par moment</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>44815</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 sept. 2022 </t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -976,8 +984,10 @@
 Modèle plutôt individualiste dans le cabinet</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>44812</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 sept. 2022 </t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1049,8 +1059,10 @@
           <t>Peu de prise en compte du sur staffing des collaborateurs</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>44809</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 sept. 2022 </t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1108,8 +1120,10 @@
           <t>Siège trop petit, Bon salaire</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>44823</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 sept. 2022 </t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1178,8 +1192,10 @@
 des salaires un peu bas</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>44823</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 sept. 2022 </t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1247,8 +1263,10 @@
           <t>Pas d’inconvénients à proprement parler</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>44806</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 sept. 2022 </t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1310,8 +1328,10 @@
           <t>La culture et façon de travailler et de gerer les équipes et les salaires dépend énormément de la BU</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>44780</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 août 2022 </t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1383,8 +1403,10 @@
           <t>Manque de process bien cadrés</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>44774</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 août 2022 </t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1458,8 +1480,10 @@
 Fonctions supports peu performantes</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>44771</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 juil. 2022 </t>
+        </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1527,8 +1551,10 @@
           <t>Problème de management, les talents partent tous</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>44781</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 août 2022 </t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1593,8 +1619,10 @@
           <t>Mission et secteurs assez variés</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>44764</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 juil. 2022 </t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1664,8 +1692,10 @@
 Difficulté à maintenir un équilibre entre vie perso et vie privée</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>44761</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 juil. 2022 </t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1737,8 +1767,10 @@
           <t>Un seul jour de télétravail</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>44754</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 juil. 2022 </t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1800,8 +1832,10 @@
           <t>- Staffing : cela dépend des practices. Risque de tomber sur des missions qui ne correspondent pas du tout à votre profil</t>
         </is>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>44763</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 juil. 2022 </t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1873,8 +1907,10 @@
           <t>Je ne sais pas encore</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>44734</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 juin 2022 </t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1935,8 +1971,10 @@
           <t>processus internes parfois peu maitrisés,</t>
         </is>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>44728</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 juin 2022 </t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2004,8 +2042,10 @@
           <t>Manque de rigueur sur certains process internes ...</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>44724</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 juin 2022 </t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2083,8 +2123,10 @@
           <t>Moins de process qu'une grande entreprise</t>
         </is>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>44706</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 mai 2022 </t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2162,8 +2204,10 @@
 Equipe RH quasi absente</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>44719</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 juin 2022 </t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2239,8 +2283,10 @@
           <t>manque d'encadrement des plus juniors, conciliation vie privée/vie pro parfois difficile</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>44704</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 mai 2022 </t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2312,8 +2358,10 @@
           <t>Structuration d'une activité qui augmente rapidement</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>44701</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 mai 2022 </t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2385,8 +2433,10 @@
           <t>Equilibre vie pro / vie privée à améliorer</t>
         </is>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>44676</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 avr. 2022 </t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2458,8 +2508,10 @@
           <t>Besoin de s'adapter par soi-même</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>44671</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 avr. 2022 </t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2536,8 +2588,10 @@
           <t>cabinet de conseil donc difficile d'avoir des liens forts avec les autres consultants quand on est en mission</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>44666</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 avr. 2022 </t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2609,8 +2663,10 @@
           <t>Beaucoup de travail, pas assez de consultants</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>44679</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 avr. 2022 </t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2680,8 +2736,10 @@
           <t>pas encore trouvé, peut-être gestion pro/perso à mettre sous contrôle car le boulot peut vite devenir passionnant :).</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>44662</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 avr. 2022 </t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2757,8 +2815,10 @@
           <t>Avantage entreprise peu satisfaisants ajd</t>
         </is>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>44671</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 avr. 2022 </t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2830,8 +2890,10 @@
           <t>Nécessité d'être mobile en France et étranger</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>44656</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 avr. 2022 </t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2892,8 +2954,10 @@
 Charge de travail importante</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>44642</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 mars 2022 </t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2961,8 +3025,10 @@
           <t>Équilibre vie privée et vie professionnelle insuffisamment respecté.</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>44643</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 mars 2022 </t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3033,8 +3099,10 @@
           <t>Charge de travail assez rude</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>44642</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 mars 2022 </t>
+        </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3108,8 +3176,10 @@
 Quelques rares employés sortent néanmoins du lot et remontent le niveau comme ils le peuvent.</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>44614</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 févr. 2022 </t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3185,8 +3255,10 @@
           <t>Beaucoup de travail et de stress</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>44584</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 janv. 2022 </t>
+        </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3258,8 +3330,10 @@
           <t>Stratégie développement trop agressive, se perd</t>
         </is>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>44570</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 janv. 2022 </t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3329,8 +3403,10 @@
           <t>rien à signaler pour l'instant</t>
         </is>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>44546</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 déc. 2021 </t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3388,8 +3464,10 @@
           <t>Intégration des nouveaux parfois compliquée (encore plus en situation de covid)</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>44525</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 nov. 2021 </t>
+        </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3448,7 +3526,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Århus</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3461,8 +3539,10 @@
           <t>Missions quelquefois peu intéressantes en data</t>
         </is>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>44529</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 nov. 2021 </t>
+        </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3495,7 +3575,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Århus</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3525,7 +3605,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Neuilly</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3538,8 +3618,10 @@
           <t>Cabinet bénéficiant d'une plus faible renommée que la concurrence (big 4 par exemple)</t>
         </is>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>44487</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 oct. 2021 </t>
+        </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3572,7 +3654,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3602,7 +3684,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3615,8 +3697,10 @@
           <t>Type de missions, esprit et mentalité au sein de l'entreprise</t>
         </is>
       </c>
-      <c r="G45" s="2" t="n">
-        <v>44520</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 nov. 2021 </t>
+        </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3643,7 +3727,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3673,7 +3757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Neuilly</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3686,8 +3770,10 @@
           <t>Le processus de recrutement peut être un peu long, mais en progrès à ce sujet.</t>
         </is>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>44483</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 oct. 2021 </t>
+        </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -3720,7 +3806,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3750,7 +3836,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Neuilly</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3767,8 +3853,10 @@
           <t>L'intégration entre les bureaux à l'étranger et les bureaux français est encore à améliorer</t>
         </is>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>44483</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 oct. 2021 </t>
+        </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -3847,8 +3935,10 @@
 Moins structuré qu'une grande entreprise (pour le moment)</t>
         </is>
       </c>
-      <c r="G48" s="2" t="n">
-        <v>44476</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 oct. 2021 </t>
+        </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3909,7 +3999,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Neuilly</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3922,8 +4012,10 @@
           <t>Grandes disparités en terme de salaires et entre pays</t>
         </is>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>44472</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 oct. 2021 </t>
+        </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3986,7 +4078,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Neuilly</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4003,8 +4095,10 @@
           <t>Encore de la structuration et des outils à mettre en place pour améliorer le quotidien des salariés</t>
         </is>
       </c>
-      <c r="G50" s="2" t="n">
-        <v>44474</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 oct. 2021 </t>
+        </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4037,7 +4131,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4081,8 +4175,10 @@
           <t>Pas toujours le choix sur les missions</t>
         </is>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>44462</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 sept. 2021 </t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4155,8 +4251,10 @@
 Aucune reconnaissance</t>
         </is>
       </c>
-      <c r="G52" s="2" t="n">
-        <v>44462</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 sept. 2021 </t>
+        </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4235,8 +4333,10 @@
           <t>- La charge de travail du métier de consultant, qu'on retrouve néanmoins dans tous les cabinets.</t>
         </is>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>44381</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 juil. 2021 </t>
+        </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4310,8 +4410,10 @@
           <t>La croissance du cabinet occasionne parfois quelques petits couacs dans la gestion de certains aspects d'entreprises mais cela est en cours de règlement grâce à l'investissement des équipes et des supports</t>
         </is>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>44377</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 juin 2021 </t>
+        </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4383,8 +4485,10 @@
           <t>Personalités fortes pouvant etre génantes</t>
         </is>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>44371</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4462,8 +4566,10 @@
 - Peu d'accompagnement et d'encadrement pour les nouveaux arrivants</t>
         </is>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>44371</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -4539,8 +4645,10 @@
           <t>Il faudrait une communication plus régulière sur les avancées de l'entreprise</t>
         </is>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>44371</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -4615,8 +4723,10 @@
           <t>- Certains process encore en construction</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>44371</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -4682,8 +4792,10 @@
           <t>Quelques missions PMO qui ne sont pas orientée apport de valeur mais apport de ressources</t>
         </is>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>44371</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -4755,8 +4867,10 @@
           <t>Une autonomie et une organisation sur la base du volontariat qui ne conviennent pas à tout le monde</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>44371</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2021 </t>
+        </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -4829,8 +4943,10 @@
           <t>Taux d’inter staffing élevé et temps de mission réduit.</t>
         </is>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>44354</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 juin 2021 </t>
+        </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -4910,8 +5026,10 @@
 Fonctions supports disponibles mais souvent débordée</t>
         </is>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>44340</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 mai 2021 </t>
+        </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -4994,8 +5112,10 @@
 - Outillage interne à reprendre de A à Z</t>
         </is>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>44361</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 juin 2021 </t>
+        </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -5071,8 +5191,10 @@
           <t>Structuration interne du cabinet parfois approximative</t>
         </is>
       </c>
-      <c r="G64" s="2" t="n">
-        <v>44312</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 avr. 2021 </t>
+        </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -5144,8 +5266,10 @@
           <t>Le pourcentage de turnover est important</t>
         </is>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>44312</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 avr. 2021 </t>
+        </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -5221,8 +5345,10 @@
 Des fondateurs complètement décoléré de la réalité</t>
         </is>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>44304</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 avr. 2021 </t>
+        </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -5294,8 +5420,10 @@
           <t>Une absence de contact entre les associés et les consultants.</t>
         </is>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>44299</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 avr. 2021 </t>
+        </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -5371,8 +5499,10 @@
           <t>Investissement en interne fort qui est demandé pour les consultants</t>
         </is>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>44287</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 avr. 2021 </t>
+        </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -5438,8 +5568,10 @@
           <t>Pression sur les équipes, Processus internes à améliorer</t>
         </is>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>44237</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 févr. 2021 </t>
+        </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -5511,8 +5643,10 @@
           <t>horaires, charge de travail, management</t>
         </is>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>44250</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 févr. 2021 </t>
+        </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -5585,8 +5719,10 @@
           <t>Des fonctions support sous dimensionnées</t>
         </is>
       </c>
-      <c r="G71" s="2" t="n">
-        <v>44229</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 févr. 2021 </t>
+        </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -5664,8 +5800,10 @@
           <t>- Cabinet pas très processé</t>
         </is>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>44230</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 févr. 2021 </t>
+        </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -5735,8 +5873,10 @@
           <t>solitude, focalisé sur le commercial</t>
         </is>
       </c>
-      <c r="G73" s="2" t="n">
-        <v>44237</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 févr. 2021 </t>
+        </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -5806,8 +5946,10 @@
           <t>Pas de reconnaissance du travail, une évolution difficile pour le genre masculin, des missions peu intéressantes.</t>
         </is>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>44242</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 févr. 2021 </t>
+        </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -5879,8 +6021,10 @@
           <t>Staffing important actuellement car forte croissance mais en phase de recrutement</t>
         </is>
       </c>
-      <c r="G75" s="2" t="n">
-        <v>44195</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 déc. 2020 </t>
+        </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -5948,8 +6092,10 @@
           <t>Nécessité d'être immédiatement extrêmement autonome</t>
         </is>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>44192</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 déc. 2020 </t>
+        </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -6015,8 +6161,10 @@
 Intérêt des missions pas toujours au rendez-vous</t>
         </is>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>44185</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 déc. 2020 </t>
+        </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -6065,7 +6213,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6074,22 +6222,103 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Cabinet très formateur</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-Pluralité de missions intellectuellement stimulantes
+-Bonne ambiance dans le cabinet</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-Equilibre vie pro/perso
+-Management pas tout le temps conciliant</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 déc. 2020 </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Senior Consultant</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Employé actuel</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>plus de 3 ans</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Consultant</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>very_positive</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Employé actuel, plus de 3 ans</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Des consultants peu considérés</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>Quelques avantages qui permet de trouver des bons collègues. 
 Des outils performants (PC, téléphone)
 Un salaire dans la fourchette du marché du consulting</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Plus d'inconvénients que d'avantages à savoir :
 - un management qui méprise le travail des consultants, 
@@ -6098,91 +6327,14 @@
 - une compétition acerbe entre les collègues et certaines relations toxiques</t>
         </is>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>44210</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 janv. 2021 </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>IT Consultant</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Employé actuel</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>plus de 3 ans</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>négatif</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>4</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Employé actuel, plus de 3 ans</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Cabinet très formateur</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-Pluralité de missions intellectuellement stimulantes
--Bonne ambiance dans le cabinet</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-Equilibre vie pro/perso
--Management pas tout le temps conciliant</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>44179</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Senior Consultant</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6192,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6216,12 +6368,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>very_positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -6255,8 +6407,10 @@
           <t>Le métier du conseil est exigeant et la période actuelle doit permettre de trouver un équilibre entre le travail à distance et la proximité nécessaire avec l'entreprise et ses clients. Des efforts communs sont consentis en ce moment.</t>
         </is>
       </c>
-      <c r="G80" s="2" t="n">
-        <v>44158</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 nov. 2020 </t>
+        </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -6335,8 +6489,10 @@
 Crise sanitaire ayant impactée fortement tous nos événement de team building (afterwork, séminaire à l'étranger...)</t>
         </is>
       </c>
-      <c r="G81" s="2" t="n">
-        <v>44158</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 nov. 2020 </t>
+        </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -6412,8 +6568,10 @@
           <t>Entreprise qui a le sens du développement du collaborateur</t>
         </is>
       </c>
-      <c r="G82" s="2" t="n">
-        <v>44149</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 nov. 2020 </t>
+        </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -6479,8 +6637,10 @@
           <t>Investissement interne indispensable pour progresser, nécessité d'être visible</t>
         </is>
       </c>
-      <c r="G83" s="2" t="n">
-        <v>44140</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 nov. 2020 </t>
+        </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -6562,8 +6722,10 @@
 Forte valorisation du commercial au détriment de la qualité de la production sur mission et de la satisfaction client</t>
         </is>
       </c>
-      <c r="G84" s="2" t="n">
-        <v>44115</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 oct. 2020 </t>
+        </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -6642,8 +6804,10 @@
           <t>Rien à signaler de ce coté</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n">
-        <v>44049</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 août 2020 </t>
+        </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -6713,8 +6877,10 @@
           <t>Rythme de travail énorme ne permettant pas facilement un bon équilibre vie professionnelle / vie privée</t>
         </is>
       </c>
-      <c r="G86" s="2" t="n">
-        <v>44028</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 juil. 2020 </t>
+        </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -6793,8 +6959,10 @@
 La formation des consultant junior</t>
         </is>
       </c>
-      <c r="G87" s="2" t="n">
-        <v>44006</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 juin 2020 </t>
+        </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -6872,8 +7040,10 @@
           <t>Peu de teletravail pour le moment</t>
         </is>
       </c>
-      <c r="G88" s="2" t="n">
-        <v>43960</v>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 mai 2020 </t>
+        </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -6949,8 +7119,10 @@
           <t>Forte croissance de l'entreprise qui nécessite plus de process,</t>
         </is>
       </c>
-      <c r="G89" s="2" t="n">
-        <v>43823</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 déc. 2019 </t>
+        </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -7028,8 +7200,10 @@
           <t>Forte culture du travail et du résultat qui impacte l'équilibre vie perso / vie pro</t>
         </is>
       </c>
-      <c r="G90" s="2" t="n">
-        <v>43810</v>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 déc. 2019 </t>
+        </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -7105,8 +7279,10 @@
           <t>Un staffing en décalé par rapport à ses appétences sectorielle et métier</t>
         </is>
       </c>
-      <c r="G91" s="2" t="n">
-        <v>43790</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 nov. 2019 </t>
+        </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -7186,8 +7362,10 @@
 Bref, c'est très dommage pour un cabinet qui pourrait être prometteur de fermer les yeux sur ces pratiques qui découragent les autres consultants qui finissent par partir.</t>
         </is>
       </c>
-      <c r="G92" s="2" t="n">
-        <v>43776</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 nov. 2019 </t>
+        </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -7259,8 +7437,10 @@
           <t>Les horaires sont longues - salaire un peu bas</t>
         </is>
       </c>
-      <c r="G93" s="2" t="n">
-        <v>43748</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 oct. 2019 </t>
+        </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -7323,8 +7503,10 @@
           <t>Manque d'activité au sein du CSE.</t>
         </is>
       </c>
-      <c r="G94" s="2" t="n">
-        <v>43747</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 oct. 2019 </t>
+        </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -7397,8 +7579,10 @@
           <t>Les stagiaires ne sont pas forcément envoyé en mission chez le client</t>
         </is>
       </c>
-      <c r="G95" s="2" t="n">
-        <v>43741</v>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 oct. 2019 </t>
+        </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -7464,8 +7648,10 @@
 Pas de CE</t>
         </is>
       </c>
-      <c r="G96" s="2" t="n">
-        <v>43728</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 sept. 2019 </t>
+        </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -7549,8 +7735,10 @@
 - Des démissions en cascade</t>
         </is>
       </c>
-      <c r="G97" s="2" t="n">
-        <v>43734</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 sept. 2019 </t>
+        </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -7624,8 +7812,10 @@
 Pas de CE</t>
         </is>
       </c>
-      <c r="G98" s="2" t="n">
-        <v>43675</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 juil. 2019 </t>
+        </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -7683,8 +7873,10 @@
           <t>Il y a trop de consultants "typiques"</t>
         </is>
       </c>
-      <c r="G99" s="2" t="n">
-        <v>43552</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 mars 2019 </t>
+        </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -7759,8 +7951,10 @@
 - CE à développer car inexistant</t>
         </is>
       </c>
-      <c r="G100" s="2" t="n">
-        <v>43535</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 mars 2019 </t>
+        </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -7838,8 +8032,10 @@
 - Manque de cohérence entre la communication et la réalité du cabinet (écart avec les valeurs affichées)</t>
         </is>
       </c>
-      <c r="G101" s="2" t="n">
-        <v>43542</v>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 mars 2019 </t>
+        </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -7911,8 +8107,10 @@
           <t>Les process internes ne progressent pas aussi vite que la société.</t>
         </is>
       </c>
-      <c r="G102" s="2" t="n">
-        <v>43532</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 mars 2019 </t>
+        </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -7985,8 +8183,10 @@
           <t>Entreprise en croissance donc pas encore tous les processus carrés, mais c'est aussi ce qui offre des opportunités de carrière.</t>
         </is>
       </c>
-      <c r="G103" s="2" t="n">
-        <v>43530</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 mars 2019 </t>
+        </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -8052,8 +8252,10 @@
 Le CE pourrait être développé...</t>
         </is>
       </c>
-      <c r="G104" s="2" t="n">
-        <v>43515</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 févr. 2019 </t>
+        </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -8123,8 +8325,10 @@
           <t>- Les avantages autres que la rémunération (qui est très compétitive) pourraient être meilleurs (CE, PEE ...)</t>
         </is>
       </c>
-      <c r="G105" s="2" t="n">
-        <v>43508</v>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 févr. 2019 </t>
+        </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -8204,8 +8408,10 @@
           <t>- processus en cours de construction</t>
         </is>
       </c>
-      <c r="G106" s="2" t="n">
-        <v>43507</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 févr. 2019 </t>
+        </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -8281,8 +8487,10 @@
           <t>Manque de visibilité sur les différente mission proposer. L'Evolution rapide du cabinet pousse les consultant à être attentif aux opportunités afin de trouver la mission qu'il leurs corresponds le mieux.</t>
         </is>
       </c>
-      <c r="G107" s="2" t="n">
-        <v>43507</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 févr. 2019 </t>
+        </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -8358,8 +8566,10 @@
           <t>Positionnement parfois incertain et un management souvent trop pris pour nous accompagner.</t>
         </is>
       </c>
-      <c r="G108" s="2" t="n">
-        <v>43495</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 janv. 2019 </t>
+        </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -8429,8 +8639,10 @@
           <t>........ #Atention aux décisions à chaud ...</t>
         </is>
       </c>
-      <c r="G109" s="2" t="n">
-        <v>43428</v>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 nov. 2018 </t>
+        </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -8488,8 +8700,10 @@
           <t>Direction un peu trop centré sur l'argent, et trop de taches de back office sont sur les épaules des consultants, augmentations peu avantageuses</t>
         </is>
       </c>
-      <c r="G110" s="2" t="n">
-        <v>43418</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 nov. 2018 </t>
+        </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -8557,8 +8771,10 @@
 Autant vous dire qu'avec le travail médiocre et l'amateurisme mis en avant dans le cadre des missions, les missions potentielles se feront rares dans les années à venir.</t>
         </is>
       </c>
-      <c r="G111" s="2" t="n">
-        <v>43419</v>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 nov. 2018 </t>
+        </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -8621,7 +8837,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Neuilly</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8638,8 +8854,10 @@
           <t>Il faudrait étoffer l'offre du CE et plus de place pour le parking.</t>
         </is>
       </c>
-      <c r="G112" s="2" t="n">
-        <v>43248</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 mai 2018 </t>
+        </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -8672,7 +8890,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -8718,8 +8936,10 @@
 Le CE est quasiment inexistant</t>
         </is>
       </c>
-      <c r="G113" s="2" t="n">
-        <v>43244</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 mai 2018 </t>
+        </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -8798,8 +9018,10 @@
 Pas de PEE mais normale pour la taille de l'entreprise</t>
         </is>
       </c>
-      <c r="G114" s="2" t="n">
-        <v>43237</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17 mai 2018 </t>
+        </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -8880,8 +9102,10 @@
 Implication demandée globalement plus importante que dans d'autres cabinets (mais le cabinet sait en être reconnaissant)</t>
         </is>
       </c>
-      <c r="G115" s="2" t="n">
-        <v>43212</v>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 avr. 2018 </t>
+        </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -8967,8 +9191,10 @@
 -Incohérence de la grille salariale et revalorisation salariale discrétionnaire (le taux de base est faible mais si vous exprimez un mécontentement vous serez plus augmenté)</t>
         </is>
       </c>
-      <c r="G116" s="2" t="n">
-        <v>43230</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 mai 2018 </t>
+        </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -9052,8 +9278,10 @@
 - Niveaux de compétences assez hétérogènes dans tous les grades. Certains managers et directeurs manquent de compétences...</t>
         </is>
       </c>
-      <c r="G117" s="2" t="n">
-        <v>43209</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 avr. 2018 </t>
+        </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -9125,8 +9353,10 @@
           <t>Tout le reste : ambiance, pression, management ...</t>
         </is>
       </c>
-      <c r="G118" s="2" t="n">
-        <v>43200</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 avr. 2018 </t>
+        </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -9193,8 +9423,10 @@
 - Accent mis sur le faire-savoir plus que sur le savoir-faire</t>
         </is>
       </c>
-      <c r="G119" s="2" t="n">
-        <v>43174</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 mars 2018 </t>
+        </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -9264,8 +9496,10 @@
 La qualité des missions proposées par le cabinet sont en dessous des standards "Big 4".</t>
         </is>
       </c>
-      <c r="G120" s="2" t="n">
-        <v>43138</v>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 févr. 2018 </t>
+        </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -9333,8 +9567,10 @@
           <t>Peu de processus, engagement demandé important</t>
         </is>
       </c>
-      <c r="G121" s="2" t="n">
-        <v>43126</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 janv. 2018 </t>
+        </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -9410,8 +9646,10 @@
           <t>Relations humaines catastrophiques, faible considération pour les collaborateurs, horaires aberrants (soirs et weekends), recrutements erratiques ayant conduit à des niveaux de compétences extrêmement variables à tous niveaux de la pyramide (dont à la direction) et plutôt bas de manière générale.</t>
         </is>
       </c>
-      <c r="G122" s="2" t="n">
-        <v>43084</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 déc. 2017 </t>
+        </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -9483,8 +9721,10 @@
           <t>Pas d'inconvénients à signaler :)</t>
         </is>
       </c>
-      <c r="G123" s="2" t="n">
-        <v>43004</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 sept. 2017 </t>
+        </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -9555,8 +9795,10 @@
 Aucun parcours d'évolution individualisé, Formations au compte goutte en mode loterie.</t>
         </is>
       </c>
-      <c r="G124" s="2" t="n">
-        <v>42920</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 juil. 2017 </t>
+        </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -9632,8 +9874,10 @@
           <t>pas plus d'inconvénients que dans les autres sociétés de conseil</t>
         </is>
       </c>
-      <c r="G125" s="2" t="n">
-        <v>42867</v>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 mai 2017 </t>
+        </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -9715,8 +9959,10 @@
 Faible participation</t>
         </is>
       </c>
-      <c r="G126" s="2" t="n">
-        <v>42857</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 mai 2017 </t>
+        </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -9787,8 +10033,10 @@
 si vous souhaitez intervenir principalement sur des missions pmo, allez-y</t>
         </is>
       </c>
-      <c r="G127" s="2" t="n">
-        <v>42830</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 avr. 2017 </t>
+        </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -9850,8 +10098,10 @@
           <t>Faiblesse en industrie &amp; services, rares missions en solitaire</t>
         </is>
       </c>
-      <c r="G128" s="2" t="n">
-        <v>42769</v>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 févr. 2017 </t>
+        </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
@@ -9907,8 +10157,10 @@
           <t>Une direction overbookée et avec laquelle il faut faire prendre de patience.</t>
         </is>
       </c>
-      <c r="G129" s="2" t="n">
-        <v>42714</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 déc. 2016 </t>
+        </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -9978,8 +10230,10 @@
 Business first au détriment de l'expertise et de la qualité</t>
         </is>
       </c>
-      <c r="G130" s="2" t="n">
-        <v>42666</v>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 oct. 2016 </t>
+        </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -10028,49 +10282,45 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ancien employé, moins d'un an</t>
+          <t>Employé actuel, moins d'un an</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bonne ambiance</t>
+          <t>Challengeant mais épuisant</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>beaucoup de flexibilité/bon esprit d'équipe</t>
+          <t>Mentalité intrapreuneur Beaucoup de liberté</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>beaucoup de juniors dans les équipes</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="n">
-        <v>44309</v>
+          <t>Équilibre vie pro vie perso Fonction support qui ont du mal à suivre la croissance de l’entreprise.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 déc. 2022 </t>
+        </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
+          <t>Consultant Confirmé</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Ancien employé</t>
+          <t>Employé actuel</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10080,52 +10330,54 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Employé actuel</t>
+          <t>Ancien employé, moins d'un an</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>Bonne ambiance</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>salaire, autonomie, ambiance, perspectifs, missions</t>
+          <t>beaucoup de flexibilité/bon esprit d'équipe</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>charge de travail sur les missions</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="n">
-        <v>43405</v>
+          <t>beaucoup de juniors dans les équipes</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 avr. 2021 </t>
+        </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Employé anonyme</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -10135,17 +10387,21 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Employé actuel</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr"/>
+          <t>Ancien employé</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>moins d'un an</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Employé anonyme</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
@@ -10162,7 +10418,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -10171,50 +10427,119 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Encore un autre cabinet de conseil dans le digital..</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
+          <t>salaire, autonomie, ambiance, perspectifs, missions</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>charge de travail sur les missions</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 nov. 2018 </t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Employé anonyme</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Employé actuel</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Employé anonyme</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Employé actuel</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Encore un autre cabinet de conseil dans le digital..</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>Cadre intéressant pour travailler
 Salaire dans la moyenne des autres cabinets</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>Manque de qualités humaines (valeurs)</t>
         </is>
       </c>
-      <c r="G133" s="2" t="n">
-        <v>42674</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31 oct. 2016 </t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Employé actuel</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Employé actuel</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr">
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="Q134" t="inlineStr">
         <is>
           <t>positif</t>
         </is>
